--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/50_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/50_455-55R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="58">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Signal_Value_123</t>
+  </si>
+  <si>
+    <t>Signal_Value_124</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -547,15 +550,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -662,10 +665,13 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -674,58 +680,58 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02409684053321085</v>
+        <v>0.3322520111057345</v>
       </c>
       <c r="E2">
-        <v>0.2066701687279229</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2368748211430806</v>
+        <v>0.0945853780052601</v>
       </c>
       <c r="G2">
-        <v>0.06926493272476017</v>
+        <v>0.02030530038105284</v>
       </c>
       <c r="H2">
-        <v>0.04940570950799093</v>
+        <v>0.06173180772496367</v>
       </c>
       <c r="I2">
-        <v>0.0214843957674714</v>
+        <v>0.02726702214728484</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01623278281605089</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.001869262307145624</v>
+        <v>0.01322359418178608</v>
       </c>
       <c r="M2">
-        <v>0.006627632163958432</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0007127135213769319</v>
+        <v>0.1168507479093671</v>
       </c>
       <c r="O2">
-        <v>0.03949892543450891</v>
+        <v>0.1148196774483174</v>
       </c>
       <c r="P2">
-        <v>0.194259396732218</v>
+        <v>0.00921649744769994</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.003292267325610749</v>
       </c>
       <c r="R2">
-        <v>0.09982349075711436</v>
+        <v>0.07490259874107061</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.04935734624866058</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.006879649608089617</v>
       </c>
       <c r="U2">
-        <v>0.002239612674201767</v>
+        <v>0.05253806978881967</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -734,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.01020288532981355</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.00321146578026286</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.00443113698871727</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -752,16 +758,16 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.01309382709019463</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.007210031749356658</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.006764222172149812</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.008803778014775863</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -772,10 +778,13 @@
       <c r="AJ2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AK2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -784,67 +793,67 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06835532538458586</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1280394973148889</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1608763598446709</v>
+        <v>0.3219646065633954</v>
       </c>
       <c r="G3">
-        <v>0.02482800652806261</v>
+        <v>0.1565678787853275</v>
       </c>
       <c r="H3">
-        <v>0.06666678567991512</v>
+        <v>0.1238358118122134</v>
       </c>
       <c r="I3">
-        <v>0.02740556180344403</v>
+        <v>0.02217391028157524</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01312991634033093</v>
       </c>
       <c r="K3">
-        <v>0.0415372253663019</v>
+        <v>0.03263937190701714</v>
       </c>
       <c r="L3">
-        <v>0.01554962728700707</v>
+        <v>0.003724187623811957</v>
       </c>
       <c r="M3">
-        <v>0.0004366459704207822</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0231587589295313</v>
+        <v>0.02019528554952474</v>
       </c>
       <c r="O3">
-        <v>0.06452825899822606</v>
+        <v>0.04451358318441492</v>
       </c>
       <c r="P3">
-        <v>0.1888555571318137</v>
+        <v>0.02535629661800017</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.1006313392312519</v>
       </c>
       <c r="R3">
-        <v>0.1240539539754357</v>
+        <v>0.001952147690205781</v>
       </c>
       <c r="S3">
-        <v>0.0183028499472165</v>
+        <v>0.06306949861266328</v>
       </c>
       <c r="T3">
-        <v>0.004514514844829508</v>
+        <v>0.001844973006321097</v>
       </c>
       <c r="U3">
-        <v>0.02836154878585952</v>
+        <v>0.01402589390476591</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.004845658816466604</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.01852391751718405</v>
       </c>
       <c r="X3">
-        <v>0.01452952220779053</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -856,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.015674571577059</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -865,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.009202211480848637</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.006128939497622249</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -882,10 +891,13 @@
       <c r="AJ3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -894,58 +906,58 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3700895542072284</v>
+        <v>0.08453154498956557</v>
       </c>
       <c r="E4">
-        <v>0.09452707538155031</v>
+        <v>0.1796669855606707</v>
       </c>
       <c r="F4">
-        <v>0.1148616482276693</v>
+        <v>0.2289268723705393</v>
       </c>
       <c r="G4">
-        <v>0.02853373487350601</v>
+        <v>0.07442289909294257</v>
       </c>
       <c r="H4">
-        <v>0.03437254933558269</v>
+        <v>0.0109031056462932</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01859842960368648</v>
       </c>
       <c r="J4">
-        <v>0.03440368922253909</v>
+        <v>0.03220851759956017</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.03958367484969123</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01118834869787645</v>
+        <v>0.04073314986633152</v>
       </c>
       <c r="N4">
-        <v>0.0006453502481165082</v>
+        <v>0.0100089917352588</v>
       </c>
       <c r="O4">
-        <v>0.1675113455497269</v>
+        <v>0.02688524747485751</v>
       </c>
       <c r="P4">
-        <v>0.01646238075655795</v>
+        <v>0.06859815967033954</v>
       </c>
       <c r="Q4">
-        <v>0.07218678808315897</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01282288044175003</v>
+        <v>0.09903942712532932</v>
       </c>
       <c r="S4">
-        <v>0.005365167170670121</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.03576314335968023</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.008494682400687603</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -954,28 +966,28 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001462190466922244</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01341265909464961</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.004658182294875807</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01193994933802523</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01021468890447012</v>
+        <v>0.02834861863200652</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.008628367727684286</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -992,10 +1004,13 @@
       <c r="AJ4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1004,67 +1019,67 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2140724269116626</v>
       </c>
       <c r="E5">
-        <v>0.01824474329318395</v>
+        <v>0.004117620326260957</v>
       </c>
       <c r="F5">
-        <v>0.1124307001356686</v>
+        <v>0.1452518670887771</v>
       </c>
       <c r="G5">
-        <v>0.2325910761248871</v>
+        <v>0.04778954250339966</v>
       </c>
       <c r="H5">
-        <v>0.06415969934756204</v>
+        <v>0.01805843275922724</v>
       </c>
       <c r="I5">
-        <v>0.06838840851783386</v>
+        <v>0.06064361561984155</v>
       </c>
       <c r="J5">
-        <v>0.0153118610386494</v>
+        <v>0.01731779077393509</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.02708881290423134</v>
       </c>
       <c r="L5">
-        <v>0.05579236107804458</v>
+        <v>0.0003936073384752718</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05631750803730821</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0346070688762715</v>
       </c>
       <c r="O5">
-        <v>0.03945348464695239</v>
+        <v>0.08702289035175378</v>
       </c>
       <c r="P5">
-        <v>0.07585462781139984</v>
+        <v>0.09620729428961755</v>
       </c>
       <c r="Q5">
-        <v>0.1461680220434769</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.07621641691262655</v>
       </c>
       <c r="S5">
-        <v>0.1324289274599313</v>
+        <v>0.04062576550518165</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.04379346584670738</v>
       </c>
       <c r="V5">
-        <v>0.02101987049414588</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.02512338560542707</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1073,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.005115542882690435</v>
+        <v>0.001642803620292737</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1082,16 +1097,16 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.003709684729002759</v>
       </c>
       <c r="AE5">
-        <v>0.000921291549764527</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.002925285466877849</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.009194098108931192</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1102,10 +1117,13 @@
       <c r="AJ5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1114,91 +1132,91 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02540266555443305</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2427256254655629</v>
+        <v>0.08172397432172465</v>
       </c>
       <c r="F6">
-        <v>0.2485568686426603</v>
+        <v>0.15215324667063</v>
       </c>
       <c r="G6">
-        <v>0.04957984733566602</v>
+        <v>0.2035232882113767</v>
       </c>
       <c r="H6">
-        <v>0.03630563650211673</v>
+        <v>0.06768422840674362</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01775254758111387</v>
       </c>
       <c r="J6">
-        <v>0.0004509256048816311</v>
+        <v>0.02741472062872348</v>
       </c>
       <c r="K6">
-        <v>0.01901688560989294</v>
+        <v>0.02746745821447934</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.02763827020872949</v>
       </c>
       <c r="M6">
-        <v>0.000748868331838288</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.04382879806617433</v>
       </c>
       <c r="O6">
-        <v>0.05181354439524598</v>
+        <v>0.02192508344691319</v>
       </c>
       <c r="P6">
-        <v>0.1402060763429704</v>
+        <v>0.05462478756428528</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.09051150988885624</v>
       </c>
       <c r="R6">
-        <v>0.1118913547139555</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.09867746395185924</v>
       </c>
       <c r="T6">
-        <v>0.003703203722462036</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.02497201376226434</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.01367023109771037</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.004006117884106966</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.003876287324529264</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.005250472128443546</v>
+        <v>0.0003562888273471496</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.01153814553836861</v>
       </c>
       <c r="AC6">
-        <v>0.02401112004678332</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.03245450039445103</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.02743731998952035</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.007100623623179973</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1210,6 +1228,9 @@
         <v>0</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
         <v>0</v>
       </c>
     </row>
@@ -1220,15 +1241,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1335,10 +1356,13 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1347,108 +1371,111 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02409684053321085</v>
+        <v>0.3322520111057345</v>
       </c>
       <c r="E2">
-        <v>0.2307670092611337</v>
+        <v>0.3322520111057345</v>
       </c>
       <c r="F2">
-        <v>0.4676418304042144</v>
+        <v>0.4268373891109946</v>
       </c>
       <c r="G2">
-        <v>0.5369067631289746</v>
+        <v>0.4471426894920474</v>
       </c>
       <c r="H2">
-        <v>0.5863124726369655</v>
+        <v>0.5088744972170111</v>
       </c>
       <c r="I2">
-        <v>0.6077968684044369</v>
+        <v>0.5361415193642959</v>
       </c>
       <c r="J2">
-        <v>0.6077968684044369</v>
+        <v>0.5361415193642959</v>
       </c>
       <c r="K2">
-        <v>0.6240296512204878</v>
+        <v>0.5361415193642959</v>
       </c>
       <c r="L2">
-        <v>0.6258989135276334</v>
+        <v>0.549365113546082</v>
       </c>
       <c r="M2">
-        <v>0.6325265456915918</v>
+        <v>0.549365113546082</v>
       </c>
       <c r="N2">
-        <v>0.6332392592129688</v>
+        <v>0.6662158614554491</v>
       </c>
       <c r="O2">
-        <v>0.6727381846474777</v>
+        <v>0.7810355389037664</v>
       </c>
       <c r="P2">
-        <v>0.8669975813796956</v>
+        <v>0.7902520363514663</v>
       </c>
       <c r="Q2">
-        <v>0.8669975813796956</v>
+        <v>0.7935443036770771</v>
       </c>
       <c r="R2">
-        <v>0.96682107213681</v>
+        <v>0.8684469024181477</v>
       </c>
       <c r="S2">
-        <v>0.96682107213681</v>
+        <v>0.9178042486668083</v>
       </c>
       <c r="T2">
-        <v>0.96682107213681</v>
+        <v>0.9246838982748979</v>
       </c>
       <c r="U2">
-        <v>0.9690606848110118</v>
+        <v>0.9772219680637176</v>
       </c>
       <c r="V2">
-        <v>0.9690606848110118</v>
+        <v>0.9772219680637176</v>
       </c>
       <c r="W2">
-        <v>0.9690606848110118</v>
+        <v>0.9772219680637176</v>
       </c>
       <c r="X2">
-        <v>0.9792635701408253</v>
+        <v>0.9772219680637176</v>
       </c>
       <c r="Y2">
-        <v>0.9792635701408253</v>
+        <v>0.9772219680637176</v>
       </c>
       <c r="Z2">
-        <v>0.9824750359210882</v>
+        <v>0.9772219680637176</v>
       </c>
       <c r="AA2">
-        <v>0.9869061729098054</v>
+        <v>0.9772219680637176</v>
       </c>
       <c r="AB2">
-        <v>0.9869061729098054</v>
+        <v>0.9772219680637176</v>
       </c>
       <c r="AC2">
-        <v>0.9869061729098054</v>
+        <v>0.9772219680637176</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9772219680637176</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9844319998130743</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9911962219852241</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AK2">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1457,88 +1484,88 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06835532538458586</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1963948226994748</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3572711825441456</v>
+        <v>0.3219646065633954</v>
       </c>
       <c r="G3">
-        <v>0.3820991890722082</v>
+        <v>0.4785324853487228</v>
       </c>
       <c r="H3">
-        <v>0.4487659747521233</v>
+        <v>0.6023682971609363</v>
       </c>
       <c r="I3">
-        <v>0.4761715365555674</v>
+        <v>0.6245422074425115</v>
       </c>
       <c r="J3">
-        <v>0.4761715365555674</v>
+        <v>0.6376721237828424</v>
       </c>
       <c r="K3">
-        <v>0.5177087619218693</v>
+        <v>0.6703114956898596</v>
       </c>
       <c r="L3">
-        <v>0.5332583892088764</v>
+        <v>0.6740356833136716</v>
       </c>
       <c r="M3">
-        <v>0.5336950351792972</v>
+        <v>0.6740356833136716</v>
       </c>
       <c r="N3">
-        <v>0.5568537941088285</v>
+        <v>0.6942309688631964</v>
       </c>
       <c r="O3">
-        <v>0.6213820531070546</v>
+        <v>0.7387445520476112</v>
       </c>
       <c r="P3">
-        <v>0.8102376102388683</v>
+        <v>0.7641008486656115</v>
       </c>
       <c r="Q3">
-        <v>0.8102376102388683</v>
+        <v>0.8647321878968633</v>
       </c>
       <c r="R3">
-        <v>0.934291564214304</v>
+        <v>0.8666843355870691</v>
       </c>
       <c r="S3">
-        <v>0.9525944141615206</v>
+        <v>0.9297538341997325</v>
       </c>
       <c r="T3">
-        <v>0.95710892900635</v>
+        <v>0.9315988072060536</v>
       </c>
       <c r="U3">
-        <v>0.9854704777922095</v>
+        <v>0.9456247011108195</v>
       </c>
       <c r="V3">
-        <v>0.9854704777922095</v>
+        <v>0.9504703599272861</v>
       </c>
       <c r="W3">
-        <v>0.9854704777922095</v>
+        <v>0.9689942774444702</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.9689942774444702</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.9689942774444702</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9689942774444702</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.9689942774444702</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9846688490215292</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9846688490215292</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9846688490215292</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9938710605023778</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1555,10 +1582,13 @@
       <c r="AJ3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1567,108 +1597,111 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3700895542072284</v>
+        <v>0.08453154498956557</v>
       </c>
       <c r="E4">
-        <v>0.4646166295887788</v>
+        <v>0.2641985305502362</v>
       </c>
       <c r="F4">
-        <v>0.579478277816448</v>
+        <v>0.4931254029207755</v>
       </c>
       <c r="G4">
-        <v>0.608012012689954</v>
+        <v>0.5675483020137181</v>
       </c>
       <c r="H4">
-        <v>0.6423845620255366</v>
+        <v>0.5784514076600112</v>
       </c>
       <c r="I4">
-        <v>0.6423845620255366</v>
+        <v>0.5970498372636978</v>
       </c>
       <c r="J4">
-        <v>0.6767882512480757</v>
+        <v>0.629258354863258</v>
       </c>
       <c r="K4">
-        <v>0.6767882512480757</v>
+        <v>0.6688420297129493</v>
       </c>
       <c r="L4">
-        <v>0.6767882512480757</v>
+        <v>0.6688420297129493</v>
       </c>
       <c r="M4">
-        <v>0.6879765999459522</v>
+        <v>0.7095751795792807</v>
       </c>
       <c r="N4">
-        <v>0.6886219501940687</v>
+        <v>0.7195841713145396</v>
       </c>
       <c r="O4">
-        <v>0.8561332957437955</v>
+        <v>0.7464694187893971</v>
       </c>
       <c r="P4">
-        <v>0.8725956765003534</v>
+        <v>0.8150675784597367</v>
       </c>
       <c r="Q4">
-        <v>0.9447824645835123</v>
+        <v>0.8150675784597367</v>
       </c>
       <c r="R4">
-        <v>0.9576053450252624</v>
+        <v>0.914107005585066</v>
       </c>
       <c r="S4">
-        <v>0.9629705121959325</v>
+        <v>0.914107005585066</v>
       </c>
       <c r="T4">
-        <v>0.9629705121959325</v>
+        <v>0.9498701489447462</v>
       </c>
       <c r="U4">
-        <v>0.9629705121959325</v>
+        <v>0.9583648313454338</v>
       </c>
       <c r="V4">
-        <v>0.9629705121959325</v>
+        <v>0.9583648313454338</v>
       </c>
       <c r="W4">
-        <v>0.9629705121959325</v>
+        <v>0.9583648313454338</v>
       </c>
       <c r="X4">
-        <v>0.9644327026628547</v>
+        <v>0.9583648313454338</v>
       </c>
       <c r="Y4">
-        <v>0.9644327026628547</v>
+        <v>0.9583648313454338</v>
       </c>
       <c r="Z4">
-        <v>0.9778453617575044</v>
+        <v>0.9583648313454338</v>
       </c>
       <c r="AA4">
-        <v>0.9778453617575044</v>
+        <v>0.9630230136403096</v>
       </c>
       <c r="AB4">
-        <v>0.9778453617575044</v>
+        <v>0.9630230136403096</v>
       </c>
       <c r="AC4">
-        <v>0.9897853110955296</v>
+        <v>0.9630230136403096</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999997</v>
+        <v>0.9913716322723162</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1677,108 +1710,111 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2140724269116626</v>
       </c>
       <c r="E5">
-        <v>0.01824474329318395</v>
+        <v>0.2181900472379236</v>
       </c>
       <c r="F5">
-        <v>0.1306754434288525</v>
+        <v>0.3634419143267007</v>
       </c>
       <c r="G5">
-        <v>0.3632665195537396</v>
+        <v>0.4112314568301004</v>
       </c>
       <c r="H5">
-        <v>0.4274262189013017</v>
+        <v>0.4292898895893276</v>
       </c>
       <c r="I5">
-        <v>0.4958146274191355</v>
+        <v>0.4899335052091692</v>
       </c>
       <c r="J5">
-        <v>0.5111264884577849</v>
+        <v>0.5072512959831043</v>
       </c>
       <c r="K5">
-        <v>0.5111264884577849</v>
+        <v>0.5343401088873356</v>
       </c>
       <c r="L5">
-        <v>0.5669188495358294</v>
+        <v>0.5347337162258109</v>
       </c>
       <c r="M5">
-        <v>0.5669188495358294</v>
+        <v>0.5910512242631191</v>
       </c>
       <c r="N5">
-        <v>0.5669188495358294</v>
+        <v>0.6256582931393906</v>
       </c>
       <c r="O5">
-        <v>0.6063723341827818</v>
+        <v>0.7126811834911444</v>
       </c>
       <c r="P5">
-        <v>0.6822269619941816</v>
+        <v>0.8088884777807619</v>
       </c>
       <c r="Q5">
-        <v>0.8283949840376585</v>
+        <v>0.8088884777807619</v>
       </c>
       <c r="R5">
-        <v>0.8283949840376585</v>
+        <v>0.8851048946933885</v>
       </c>
       <c r="S5">
-        <v>0.9608239114975898</v>
+        <v>0.9257306601985701</v>
       </c>
       <c r="T5">
-        <v>0.9608239114975898</v>
+        <v>0.9257306601985701</v>
       </c>
       <c r="U5">
-        <v>0.9608239114975898</v>
+        <v>0.9695241260452775</v>
       </c>
       <c r="V5">
-        <v>0.9818437819917357</v>
+        <v>0.9695241260452775</v>
       </c>
       <c r="W5">
-        <v>0.9818437819917357</v>
+        <v>0.9695241260452775</v>
       </c>
       <c r="X5">
-        <v>0.9818437819917357</v>
+        <v>0.9946475116507045</v>
       </c>
       <c r="Y5">
-        <v>0.9818437819917357</v>
+        <v>0.9946475116507045</v>
       </c>
       <c r="Z5">
-        <v>0.9818437819917357</v>
+        <v>0.9946475116507045</v>
       </c>
       <c r="AA5">
-        <v>0.9869593248744262</v>
+        <v>0.9962903152709973</v>
       </c>
       <c r="AB5">
-        <v>0.9869593248744262</v>
+        <v>0.9962903152709973</v>
       </c>
       <c r="AC5">
-        <v>0.9869593248744262</v>
+        <v>0.9962903152709973</v>
       </c>
       <c r="AD5">
-        <v>0.9869593248744262</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9878806164241907</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9908059018910685</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1787,103 +1823,106 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02540266555443305</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.268128291019996</v>
+        <v>0.08172397432172465</v>
       </c>
       <c r="F6">
-        <v>0.5166851596626563</v>
+        <v>0.2338772209923546</v>
       </c>
       <c r="G6">
-        <v>0.5662650069983223</v>
+        <v>0.4374005092037313</v>
       </c>
       <c r="H6">
-        <v>0.602570643500439</v>
+        <v>0.5050847376104749</v>
       </c>
       <c r="I6">
-        <v>0.602570643500439</v>
+        <v>0.5228372851915888</v>
       </c>
       <c r="J6">
-        <v>0.6030215691053206</v>
+        <v>0.5502520058203123</v>
       </c>
       <c r="K6">
-        <v>0.6220384547152135</v>
+        <v>0.5777194640347917</v>
       </c>
       <c r="L6">
-        <v>0.6220384547152135</v>
+        <v>0.6053577342435211</v>
       </c>
       <c r="M6">
-        <v>0.6227873230470518</v>
+        <v>0.6053577342435211</v>
       </c>
       <c r="N6">
-        <v>0.6227873230470518</v>
+        <v>0.6491865323096955</v>
       </c>
       <c r="O6">
-        <v>0.6746008674422977</v>
+        <v>0.6711116157566087</v>
       </c>
       <c r="P6">
-        <v>0.8148069437852681</v>
+        <v>0.725736403320894</v>
       </c>
       <c r="Q6">
-        <v>0.8148069437852681</v>
+        <v>0.8162479132097502</v>
       </c>
       <c r="R6">
-        <v>0.9266982984992236</v>
+        <v>0.8162479132097502</v>
       </c>
       <c r="S6">
-        <v>0.9266982984992236</v>
+        <v>0.9149253771616095</v>
       </c>
       <c r="T6">
-        <v>0.9304015022216856</v>
+        <v>0.9149253771616095</v>
       </c>
       <c r="U6">
-        <v>0.9304015022216856</v>
+        <v>0.9398973909238738</v>
       </c>
       <c r="V6">
-        <v>0.9304015022216856</v>
+        <v>0.9535676220215842</v>
       </c>
       <c r="W6">
-        <v>0.9304015022216856</v>
+        <v>0.9535676220215842</v>
       </c>
       <c r="X6">
-        <v>0.9344076201057926</v>
+        <v>0.9535676220215842</v>
       </c>
       <c r="Y6">
-        <v>0.9344076201057926</v>
+        <v>0.9535676220215842</v>
       </c>
       <c r="Z6">
-        <v>0.9382839074303219</v>
+        <v>0.9535676220215842</v>
       </c>
       <c r="AA6">
-        <v>0.9435343795587654</v>
+        <v>0.9539239108489314</v>
       </c>
       <c r="AB6">
-        <v>0.9435343795587654</v>
+        <v>0.9654620563873</v>
       </c>
       <c r="AC6">
-        <v>0.9675454996055487</v>
+        <v>0.9654620563873</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999998</v>
+        <v>0.9654620563873</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999998</v>
+        <v>0.9928993763768204</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1901,66 +1940,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.5088744972170111</v>
+      </c>
+      <c r="G2">
         <v>6</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5369067631289746</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -1969,39 +2008,39 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5177087619218693</v>
+        <v>0.6023682971609363</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -2010,21 +2049,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -2033,16 +2072,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.5675483020137181</v>
+      </c>
+      <c r="G4">
         <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.579478277816448</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -2051,27 +2090,27 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -2080,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5111264884577849</v>
+        <v>0.5072512959831043</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -2092,21 +2131,21 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -2115,16 +2154,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.5050847376104749</v>
+      </c>
+      <c r="G6">
         <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5166851596626563</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -2133,16 +2172,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2160,63 +2199,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8669975813796956</v>
+        <v>0.7810355389037664</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -2228,39 +2267,39 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8102376102388683</v>
+        <v>0.7387445520476112</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -2269,21 +2308,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -2292,16 +2331,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8561332957437955</v>
+        <v>0.7095751795792807</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -2310,36 +2349,36 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8283949840376585</v>
+        <v>0.7126811834911444</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -2351,21 +2390,21 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -2380,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8148069437852681</v>
+        <v>0.725736403320894</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -2392,16 +2431,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2419,66 +2458,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8669975813796956</v>
+        <v>0.8684469024181477</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -2487,39 +2526,39 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8102376102388683</v>
+        <v>0.8647321878968633</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -2528,21 +2567,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2551,16 +2590,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8150675784597367</v>
+      </c>
+      <c r="G4">
         <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8561332957437955</v>
-      </c>
-      <c r="G4">
-        <v>13</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -2569,39 +2608,39 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8283949840376585</v>
+        <v>0.8088884777807619</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -2610,21 +2649,21 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -2633,16 +2672,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8148069437852681</v>
+        <v>0.8162479132097502</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -2651,16 +2690,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2678,66 +2717,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.9178042486668083</v>
+      </c>
+      <c r="G2">
         <v>17</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.96682107213681</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -2746,39 +2785,39 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.934291564214304</v>
+        <v>0.9297538341997325</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -2787,21 +2826,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -2810,16 +2849,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.914107005585066</v>
+      </c>
+      <c r="G4">
         <v>16</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9447824645835123</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -2828,27 +2867,27 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -2857,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9608239114975898</v>
+        <v>0.9257306601985701</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -2869,21 +2908,21 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -2892,16 +2931,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9266982984992236</v>
+        <v>0.9149253771616095</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -2910,16 +2949,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
